--- a/ESERCIZIO_M2-1-3_dati_Andrea Lizzoli.xlsx
+++ b/ESERCIZIO_M2-1-3_dati_Andrea Lizzoli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://revenuemgt-my.sharepoint.com/personal/alizzoli_revenuemanage_com/Documents/Documents/Epicode/Esercizi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E76B8D1E-F9C3-47A4-B083-3F5FCB5EFED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{E76B8D1E-F9C3-47A4-B083-3F5FCB5EFED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23F72CC5-4F56-4F86-BBA3-81759192C8D2}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -153,11 +153,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -252,6 +251,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-D166-4D65-B799-8A9AE01337BB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -267,6 +271,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-D166-4D65-B799-8A9AE01337BB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -282,6 +291,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-D166-4D65-B799-8A9AE01337BB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -297,6 +311,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-D166-4D65-B799-8A9AE01337BB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -312,6 +331,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-D166-4D65-B799-8A9AE01337BB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -327,6 +351,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-D166-4D65-B799-8A9AE01337BB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -344,6 +373,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-D166-4D65-B799-8A9AE01337BB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -579,11 +613,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -616,7 +650,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -642,11 +676,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -670,14 +704,13 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
+                        <a:schemeClr val="dk1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -899,6 +932,21 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                  <a:alpha val="33000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
         <c:smooth val="0"/>
         <c:axId val="680807055"/>
         <c:axId val="2103935839"/>
@@ -910,20 +958,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -932,7 +966,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="dk1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -946,9 +980,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -984,7 +1018,19 @@
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:noFill/>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -997,11 +1043,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -3492,25 +3538,25 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -3518,7 +3564,7 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -3526,22 +3572,22 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:chartArea mods="allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -3549,16 +3595,16 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3592,46 +3638,60 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3643,33 +3703,34 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3685,21 +3746,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3714,13 +3773,13 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -3733,64 +3792,176 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+            <a:alpha val="33000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -3798,120 +3969,24 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -3920,12 +3995,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3934,14 +4009,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3950,7 +4024,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -3970,9 +4044,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3983,26 +4057,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -5386,7 +5454,7 @@
     <col min="4" max="4" width="22.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5496,7 +5564,7 @@
     <col min="4" max="4" width="22.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -5532,7 +5600,7 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>70.5</v>
       </c>
     </row>
@@ -5540,7 +5608,7 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>71</v>
       </c>
     </row>
@@ -5548,7 +5616,7 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>70.5</v>
       </c>
     </row>
@@ -5556,7 +5624,7 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>71</v>
       </c>
     </row>
@@ -5564,7 +5632,7 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>71.5</v>
       </c>
     </row>
@@ -5572,7 +5640,7 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>71</v>
       </c>
     </row>
@@ -5580,7 +5648,7 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>71.5</v>
       </c>
     </row>
@@ -5588,7 +5656,7 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>72</v>
       </c>
     </row>
@@ -5596,7 +5664,7 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>71.5</v>
       </c>
     </row>
@@ -5604,7 +5672,7 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>72</v>
       </c>
     </row>
@@ -5612,7 +5680,7 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>72.400000000000006</v>
       </c>
     </row>
@@ -5620,7 +5688,7 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>72.900000000000006</v>
       </c>
     </row>
@@ -5628,7 +5696,7 @@
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>72.400000000000006</v>
       </c>
     </row>
@@ -5636,7 +5704,7 @@
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>72.900000000000006</v>
       </c>
     </row>
@@ -5644,7 +5712,7 @@
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>73.400000000000006</v>
       </c>
     </row>
@@ -5652,7 +5720,7 @@
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>72.900000000000006</v>
       </c>
     </row>
@@ -5660,7 +5728,7 @@
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>73.400000000000006</v>
       </c>
     </row>
@@ -5668,7 +5736,7 @@
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>73.900000000000006</v>
       </c>
     </row>
@@ -5676,7 +5744,7 @@
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>73.400000000000006</v>
       </c>
     </row>
@@ -5684,7 +5752,7 @@
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>73.900000000000006</v>
       </c>
     </row>
@@ -5692,7 +5760,7 @@
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>74.400000000000006</v>
       </c>
     </row>
@@ -5700,7 +5768,7 @@
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>73.900000000000006</v>
       </c>
     </row>
@@ -5708,7 +5776,7 @@
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>74.400000000000006</v>
       </c>
     </row>
@@ -5716,7 +5784,7 @@
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>74.900000000000006</v>
       </c>
     </row>
@@ -5724,7 +5792,7 @@
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>74.400000000000006</v>
       </c>
     </row>
@@ -5732,7 +5800,7 @@
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>74.900000000000006</v>
       </c>
     </row>
@@ -5740,7 +5808,7 @@
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>75.400000000000006</v>
       </c>
     </row>
@@ -5748,7 +5816,7 @@
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>74.900000000000006</v>
       </c>
     </row>
@@ -5756,7 +5824,7 @@
       <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>75.400000000000006</v>
       </c>
     </row>
@@ -5764,7 +5832,7 @@
       <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>75.900000000000006</v>
       </c>
     </row>
@@ -5790,7 +5858,7 @@
     <col min="4" max="4" width="22.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
